--- a/week3_project_prototype.xlsx
+++ b/week3_project_prototype.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee7aed13e7a9e93d/IronHack/MiniProjects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee7aed13e7a9e93d/IronHack/MiniProjects/Week3-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B718D9-4F89-425C-B57C-148340D7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{E7B718D9-4F89-425C-B57C-148340D7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD97EFF-F8E8-4294-BB3C-63A24351C698}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{AE7CF485-1DA2-44A1-BB5D-A3D991ACAFD5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{AE7CF485-1DA2-44A1-BB5D-A3D991ACAFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="weather" sheetId="1" r:id="rId1"/>
-    <sheet name="bike" sheetId="2" r:id="rId2"/>
+    <sheet name="zscore" sheetId="3" r:id="rId2"/>
+    <sheet name="bike" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>Weather Days</t>
   </si>
@@ -151,15 +152,643 @@
   </si>
   <si>
     <t>conclusion</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>z_temp</t>
+  </si>
+  <si>
+    <t>z_rain</t>
+  </si>
+  <si>
+    <t>z_sun</t>
+  </si>
+  <si>
+    <t>weather_anomaly</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Good Range</t>
+  </si>
+  <si>
+    <t>Slightly Bad</t>
+  </si>
+  <si>
+    <t>Bad Range</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>-1 to +1</t>
+  </si>
+  <si>
+    <t>±1 to ±2</t>
+  </si>
+  <si>
+    <t>&lt; -2 or &gt; +2</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>&lt; 0.5</t>
+  </si>
+  <si>
+    <t>0.5 to 1.5</t>
+  </si>
+  <si>
+    <t>&gt; 1.5</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>&gt; 2</t>
+  </si>
+  <si>
+    <t>Solar Shortwave</t>
+  </si>
+  <si>
+    <t>&gt; 0.5</t>
+  </si>
+  <si>
+    <t>-1 to 0.5</t>
+  </si>
+  <si>
+    <t>&lt; -1</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>temp_z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 and +1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mild/seasonal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bad (Cold)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; -2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bad (Hot)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; +2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slightly Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>±1 and ±2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Rain (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>rain_z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; 0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dry or normal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (much more rain than usual)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slightly Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5 and 1.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Wind (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>wind_z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slightly Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 and 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Solar Shortwave Radiation (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>solar_z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(proxy for sunshine)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: z-score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Neutral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 and 0.5</t>
+    </r>
+  </si>
+  <si>
+    <t>High positive z-scores = unusually hot</t>
+  </si>
+  <si>
+    <t>High negative z-scores = unusually cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High z-scores indicate much more rain than usual = possibly fewer bike hires.</t>
+  </si>
+  <si>
+    <t>People may avoid cycling in strong winds.</t>
+  </si>
+  <si>
+    <t>Higher solar radiation suggests sunnier weather, usually correlating with more bike hires.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -204,11 +833,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,6 +843,24 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BA146D-C1D4-4CC1-8D50-DEF10C82CAAC}">
   <dimension ref="B3:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -574,27 +1218,27 @@
       </c>
     </row>
     <row r="4" spans="3:29">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="3:29">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="J5" s="2">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="M5" t="s">
@@ -608,51 +1252,51 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="3:29">
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>42005</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="J7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="3:29">
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="3:29">
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:29">
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>42005</v>
       </c>
       <c r="F10" t="s">
@@ -661,7 +1305,7 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>45658</v>
       </c>
       <c r="K10" t="s">
@@ -688,53 +1332,53 @@
       </c>
     </row>
     <row r="14" spans="3:29">
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:29">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="J15" t="s">
         <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5">
         <v>0.35</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>0.15</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>0.2</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <f>1-SUM(R15:T15)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
+      <c r="V15" s="4"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="3:29">
       <c r="C16" t="s">
@@ -764,36 +1408,36 @@
       <c r="N16" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="8" t="s">
+      <c r="Y16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="8"/>
-      <c r="AB16" s="9" t="s">
+      <c r="Z16" s="7"/>
+      <c r="AB16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC16" s="9"/>
+      <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45658</v>
       </c>
       <c r="C17">
@@ -808,7 +1452,7 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>42005</v>
       </c>
       <c r="K17">
@@ -823,36 +1467,36 @@
       <c r="N17">
         <v>5</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>42005</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="5" t="s">
+      <c r="R17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8" t="s">
+      <c r="X17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>45659</v>
       </c>
       <c r="C18">
@@ -867,7 +1511,7 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>42006</v>
       </c>
       <c r="K18">
@@ -882,36 +1526,36 @@
       <c r="N18">
         <v>5</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>42006</v>
       </c>
-      <c r="R18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18" s="5" t="s">
+      <c r="R18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8" t="s">
+      <c r="V18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>45660</v>
       </c>
       <c r="C19">
@@ -926,7 +1570,7 @@
       <c r="F19">
         <v>5</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>42007</v>
       </c>
       <c r="K19">
@@ -941,36 +1585,36 @@
       <c r="N19">
         <v>5</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>42007</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="5" t="s">
+      <c r="R19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X19" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8" t="s">
+      <c r="X19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>45661</v>
       </c>
       <c r="C20">
@@ -985,7 +1629,7 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>42008</v>
       </c>
       <c r="K20">
@@ -1000,36 +1644,36 @@
       <c r="N20">
         <v>5</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>42008</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="5" t="s">
+      <c r="R20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X20" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8" t="s">
+      <c r="X20" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45662</v>
       </c>
       <c r="C21">
@@ -1044,7 +1688,7 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>42009</v>
       </c>
       <c r="K21">
@@ -1059,36 +1703,36 @@
       <c r="N21">
         <v>5</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>42009</v>
       </c>
-      <c r="R21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="5" t="s">
+      <c r="R21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8" t="s">
+      <c r="V21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45663</v>
       </c>
       <c r="C22">
@@ -1103,7 +1747,7 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>42010</v>
       </c>
       <c r="K22">
@@ -1118,36 +1762,36 @@
       <c r="N22">
         <v>5</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>42010</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="5" t="s">
+      <c r="R22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X22" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8" t="s">
+      <c r="X22" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="2:29">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45664</v>
       </c>
       <c r="C23">
@@ -1162,7 +1806,7 @@
       <c r="F23">
         <v>5</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>42011</v>
       </c>
       <c r="K23">
@@ -1177,36 +1821,36 @@
       <c r="N23">
         <v>5</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>42011</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="5" t="s">
+      <c r="R23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X23" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8" t="s">
+      <c r="X23" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:29">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45665</v>
       </c>
       <c r="C24">
@@ -1221,7 +1865,7 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>42012</v>
       </c>
       <c r="K24">
@@ -1236,36 +1880,36 @@
       <c r="N24">
         <v>5</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>42012</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="5" t="s">
+      <c r="R24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X24" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8" t="s">
+      <c r="V24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45666</v>
       </c>
       <c r="C25">
@@ -1280,7 +1924,7 @@
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>42013</v>
       </c>
       <c r="K25">
@@ -1295,36 +1939,36 @@
       <c r="N25">
         <v>5</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>42013</v>
       </c>
-      <c r="R25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T25" s="5" t="s">
+      <c r="R25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X25" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8" t="s">
+      <c r="X25" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>45667</v>
       </c>
       <c r="C26">
@@ -1339,7 +1983,7 @@
       <c r="F26">
         <v>5</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>42014</v>
       </c>
       <c r="K26">
@@ -1354,36 +1998,36 @@
       <c r="N26">
         <v>5</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>42014</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="5" t="s">
+      <c r="R26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8" t="s">
+      <c r="X26" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>45668</v>
       </c>
       <c r="C27">
@@ -1398,7 +2042,7 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>42015</v>
       </c>
       <c r="K27">
@@ -1413,36 +2057,36 @@
       <c r="N27">
         <v>5</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>42015</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="5" t="s">
+      <c r="R27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X27" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8" t="s">
+      <c r="V27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X27" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>45669</v>
       </c>
       <c r="C28">
@@ -1457,7 +2101,7 @@
       <c r="F28">
         <v>5</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>42016</v>
       </c>
       <c r="K28">
@@ -1472,36 +2116,36 @@
       <c r="N28">
         <v>5</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>42016</v>
       </c>
-      <c r="R28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="5" t="s">
+      <c r="R28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X28" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8" t="s">
+      <c r="X28" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>45670</v>
       </c>
       <c r="C29">
@@ -1516,7 +2160,7 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>42017</v>
       </c>
       <c r="K29">
@@ -1531,36 +2175,36 @@
       <c r="N29">
         <v>5</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>42017</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="5" t="s">
+      <c r="R29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X29" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8" t="s">
+      <c r="X29" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="2:29">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45671</v>
       </c>
       <c r="C30">
@@ -1575,7 +2219,7 @@
       <c r="F30">
         <v>5</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>42018</v>
       </c>
       <c r="K30">
@@ -1590,36 +2234,36 @@
       <c r="N30">
         <v>5</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="6">
         <v>42018</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="5" t="s">
+      <c r="R30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X30" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8" t="s">
+      <c r="V30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X30" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>45672</v>
       </c>
       <c r="C31">
@@ -1634,7 +2278,7 @@
       <c r="F31">
         <v>5</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>42019</v>
       </c>
       <c r="K31">
@@ -1649,36 +2293,36 @@
       <c r="N31">
         <v>5</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>42019</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" s="5" t="s">
+      <c r="R31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8" t="s">
+      <c r="X31" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>45673</v>
       </c>
       <c r="C32">
@@ -1693,7 +2337,7 @@
       <c r="F32">
         <v>5</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>42020</v>
       </c>
       <c r="K32">
@@ -1708,36 +2352,36 @@
       <c r="N32">
         <v>5</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>42020</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32" s="5" t="s">
+      <c r="R32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X32" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8" t="s">
+      <c r="X32" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>45674</v>
       </c>
       <c r="C33">
@@ -1752,7 +2396,7 @@
       <c r="F33">
         <v>5</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>42021</v>
       </c>
       <c r="K33">
@@ -1767,36 +2411,36 @@
       <c r="N33">
         <v>5</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>42021</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" s="5" t="s">
+      <c r="R33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X33" s="8">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8" t="s">
+      <c r="V33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X33" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>45675</v>
       </c>
       <c r="C34">
@@ -1813,19 +2457,19 @@
       </c>
     </row>
     <row r="35" spans="2:29">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:29">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1844,6 +2488,260 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71684C4-23C1-40CF-B452-BCE55DF21CD2}">
+  <dimension ref="B4:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="2:6" ht="27.75">
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="27.75">
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="27">
+      <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="40.5">
+      <c r="B14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25">
+      <c r="B17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" ht="13.9">
+      <c r="B19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" ht="13.9">
+      <c r="B21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" ht="13.9">
+      <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" ht="13.9">
+      <c r="B25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17.25">
+      <c r="B31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.9">
+      <c r="B33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.9">
+      <c r="B35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" ht="13.9">
+      <c r="B37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A588B073-72C9-43EF-A899-66CC9FCD57FD}">
   <dimension ref="B6:U25"/>
   <sheetViews>
@@ -1854,22 +2752,22 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="2:21">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21">
       <c r="C7" t="s">
@@ -1883,13 +2781,13 @@
       </c>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>45658</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>42005</v>
       </c>
       <c r="K8">
@@ -1898,16 +2796,16 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>45659</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>42006</v>
       </c>
       <c r="K9">
@@ -1916,16 +2814,16 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>45660</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>42007</v>
       </c>
       <c r="K10">
@@ -1934,16 +2832,16 @@
       <c r="M10" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>45661</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>42008</v>
       </c>
       <c r="K11">
@@ -1952,16 +2850,16 @@
       <c r="M11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45662</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>42009</v>
       </c>
       <c r="K12">
@@ -1970,16 +2868,16 @@
       <c r="M12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>45663</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>42010</v>
       </c>
       <c r="K13">
@@ -1988,16 +2886,16 @@
       <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>45664</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>42011</v>
       </c>
       <c r="K14">
@@ -2006,16 +2904,16 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>45665</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>42012</v>
       </c>
       <c r="K15">
@@ -2024,16 +2922,16 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>45666</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>42013</v>
       </c>
       <c r="K16">
@@ -2042,16 +2940,16 @@
       <c r="M16" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45667</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>42014</v>
       </c>
       <c r="K17">
@@ -2060,16 +2958,16 @@
       <c r="M17" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>45668</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>42015</v>
       </c>
       <c r="K18">
@@ -2078,16 +2976,16 @@
       <c r="M18" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>45669</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>42016</v>
       </c>
       <c r="K19">
@@ -2096,16 +2994,16 @@
       <c r="M19" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>45670</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>42017</v>
       </c>
       <c r="K20">
@@ -2114,16 +3012,16 @@
       <c r="M20" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45671</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>42018</v>
       </c>
       <c r="K21">
@@ -2132,16 +3030,16 @@
       <c r="M21" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45672</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>42019</v>
       </c>
       <c r="K22">
@@ -2150,16 +3048,16 @@
       <c r="M22" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45673</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>42020</v>
       </c>
       <c r="K23">
@@ -2168,16 +3066,16 @@
       <c r="M23" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45674</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>42021</v>
       </c>
       <c r="K24">
@@ -2186,10 +3084,10 @@
       <c r="M24" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45675</v>
       </c>
       <c r="C25">
